--- a/biology/Zoologie/Dilobinae/Dilobinae.xlsx
+++ b/biology/Zoologie/Dilobinae/Dilobinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dilobinae sont une sous-famille de lépidoptères nocturnes de la famille des Noctuidae. Elle ne compte qu'un seul genre (Diloba Boisduval, 1840) selon certains auteurs, et deux genres (Diloba et Raphia Hubner, 1821) selon d'autres.
 Sur les autres projets Wikimedia :
